--- a/Base de dados/Cadastro NF.xlsx
+++ b/Base de dados/Cadastro NF.xlsx
@@ -1,73 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismailer\Downloads\EstoqueA\Base de dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7238F22-1A65-4E96-B43E-9E6935522424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>CNPJ:</t>
-  </si>
-  <si>
-    <t>FORNECEDOR:</t>
-  </si>
-  <si>
-    <t>SEGUIMENTO:</t>
-  </si>
-  <si>
-    <t>DATA:</t>
-  </si>
-  <si>
-    <t>NUMERO NF:</t>
-  </si>
-  <si>
-    <t>MOTIVO:</t>
-  </si>
-  <si>
-    <t>VALOR:</t>
-  </si>
-  <si>
-    <t>OBS:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,26 +60,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,50 +427,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col width="18" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="2" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CNPJ:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FORNECEDOR:</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SEGUIMENTO:</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DATA:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NUMERO NF:</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO:</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VALOR:</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>OBS:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>00.000.000/0000-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MS DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LIMPEZA</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45722</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3080</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="3" t="n">
+        <v>45722</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00.000.000/0000-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QSUPER </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIMPEZA</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45722</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base de dados/Cadastro NF.xlsx
+++ b/Base de dados/Cadastro NF.xlsx
@@ -1,41 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismailer\Documents\Programas\Estoque_Master\Base de dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E4515-0924-4F41-91BF-1F3B5F7CBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>CNPJ:</t>
+  </si>
+  <si>
+    <t>FORNECEDOR:</t>
+  </si>
+  <si>
+    <t>SEGUIMENTO:</t>
+  </si>
+  <si>
+    <t>DATA:</t>
+  </si>
+  <si>
+    <t>NUMERO NF:</t>
+  </si>
+  <si>
+    <t>MOTIVO:</t>
+  </si>
+  <si>
+    <t>VALOR:</t>
+  </si>
+  <si>
+    <t>OBS:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,86 +92,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,142 +399,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="2" min="5" max="6"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CNPJ:</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FORNECEDOR:</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SEGUIMENTO:</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DATA:</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NUMERO NF:</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MOTIVO:</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>VALOR:</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>OBS:</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>00.000.000/0000-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MS DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LIMPEZA</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>45722</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3080</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="3" t="n">
-        <v>45722</v>
-      </c>
-      <c r="F3" t="n">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>00.000.000/0000-02</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QSUPER </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIMPEZA</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>45722</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base de dados/Cadastro NF.xlsx
+++ b/Base de dados/Cadastro NF.xlsx
@@ -1,26 +1,482 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismailer\Documents\Programas\Estoque_Master\Base de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismailer\Documents\Programas\Estoque_Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E4515-0924-4F41-91BF-1F3B5F7CBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83157750-A277-4689-900D-F49698470F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="160">
+  <si>
+    <t>00.000.000/0001-18</t>
+  </si>
+  <si>
+    <t>SUZANO</t>
+  </si>
+  <si>
+    <t>PAPEL A4</t>
+  </si>
+  <si>
+    <t>243734</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-22</t>
+  </si>
+  <si>
+    <t>TRICORES(UNIFORME)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIFORME </t>
+  </si>
+  <si>
+    <t>4382</t>
+  </si>
+  <si>
+    <t>4373</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-24</t>
+  </si>
+  <si>
+    <t>MINASA</t>
+  </si>
+  <si>
+    <t>FITA/ESTRA</t>
+  </si>
+  <si>
+    <t>32804</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-19</t>
+  </si>
+  <si>
+    <t>ADECONEX(ETIQUETA)</t>
+  </si>
+  <si>
+    <t>FITA/ETIQUETA</t>
+  </si>
+  <si>
+    <t>8327</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-06</t>
+  </si>
+  <si>
+    <t>GRUPO PROLINPE</t>
+  </si>
+  <si>
+    <t>LIMPEZA</t>
+  </si>
+  <si>
+    <t>17384</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-20</t>
+  </si>
+  <si>
+    <t>FENAPACK</t>
+  </si>
+  <si>
+    <t>HANG TAG</t>
+  </si>
+  <si>
+    <t>14390</t>
+  </si>
+  <si>
+    <t>4391</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-04</t>
+  </si>
+  <si>
+    <t>ATACADO SÃO PAULO</t>
+  </si>
+  <si>
+    <t>PAPELA</t>
+  </si>
+  <si>
+    <t>689054</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-09</t>
+  </si>
+  <si>
+    <t>BOA PAÇA EPI</t>
+  </si>
+  <si>
+    <t>BOTINA/SEGURANÇA</t>
+  </si>
+  <si>
+    <t>259159</t>
+  </si>
+  <si>
+    <t>4395</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-07</t>
+  </si>
+  <si>
+    <t>MERCANTIL SUDESTE COMERCIO E DISTRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>2471.5</t>
+  </si>
+  <si>
+    <t>28296</t>
+  </si>
+  <si>
+    <t>870.8</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-26</t>
+  </si>
+  <si>
+    <t>3 CORAÇÕES</t>
+  </si>
+  <si>
+    <t>COZINHA/ALIMENTOS</t>
+  </si>
+  <si>
+    <t>352905</t>
+  </si>
+  <si>
+    <t>1166.4</t>
+  </si>
+  <si>
+    <t>17.576</t>
+  </si>
+  <si>
+    <t>284.56</t>
+  </si>
+  <si>
+    <t>17559</t>
+  </si>
+  <si>
+    <t>530.32</t>
+  </si>
+  <si>
+    <t>247060</t>
+  </si>
+  <si>
+    <t>2940.6</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-27</t>
+  </si>
+  <si>
+    <t>CESCONETTO ATACADO DE PAPEIS LTDA</t>
+  </si>
+  <si>
+    <t>1290691</t>
+  </si>
+  <si>
+    <t>668.5699999999999</t>
+  </si>
+  <si>
+    <t>260105</t>
+  </si>
+  <si>
+    <t>2407.0</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-28</t>
+  </si>
+  <si>
+    <t>IDPROMO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>16349</t>
+  </si>
+  <si>
+    <t>2230.0</t>
+  </si>
+  <si>
+    <t>2618</t>
+  </si>
+  <si>
+    <t>886.1</t>
+  </si>
+  <si>
+    <t>1296318</t>
+  </si>
+  <si>
+    <t>469.78</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-12</t>
+  </si>
+  <si>
+    <t>FRAVEN MATERIAL ELETRICO</t>
+  </si>
+  <si>
+    <t>ELETRICO</t>
+  </si>
+  <si>
+    <t>113113</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>259.24</t>
+  </si>
+  <si>
+    <t>4.427</t>
+  </si>
+  <si>
+    <t>13186.1</t>
+  </si>
+  <si>
+    <t>1294750</t>
+  </si>
+  <si>
+    <t>974.36</t>
+  </si>
+  <si>
+    <t>28531</t>
+  </si>
+  <si>
+    <t>1977.25</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-02</t>
+  </si>
+  <si>
+    <t>MS DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>1801.49</t>
+  </si>
+  <si>
+    <t>24572</t>
+  </si>
+  <si>
+    <t>358356</t>
+  </si>
+  <si>
+    <t>4438</t>
+  </si>
+  <si>
+    <t>199.6</t>
+  </si>
+  <si>
+    <t>709576</t>
+  </si>
+  <si>
+    <t>902.89</t>
+  </si>
+  <si>
+    <t>262519</t>
+  </si>
+  <si>
+    <t>1660.0</t>
+  </si>
+  <si>
+    <t>3463</t>
+  </si>
+  <si>
+    <t>4485.6</t>
+  </si>
+  <si>
+    <t>28758</t>
+  </si>
+  <si>
+    <t>2159.85</t>
+  </si>
+  <si>
+    <t>3582</t>
+  </si>
+  <si>
+    <t>2133.3</t>
+  </si>
+  <si>
+    <t>27729</t>
+  </si>
+  <si>
+    <t>712585</t>
+  </si>
+  <si>
+    <t>719.4200000000001</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-29</t>
+  </si>
+  <si>
+    <t>GLOBEPACK INDUSTRIA E COMERCIO EMBALAGENS PLASTICAS LTDA</t>
+  </si>
+  <si>
+    <t>15545</t>
+  </si>
+  <si>
+    <t>20410.94</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-30</t>
+  </si>
+  <si>
+    <t>JULIA ROCHA ESPERIDON</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>6080.0</t>
+  </si>
+  <si>
+    <t>716896</t>
+  </si>
+  <si>
+    <t>734.8600000000001</t>
+  </si>
+  <si>
+    <t>4456</t>
+  </si>
+  <si>
+    <t>10548.9</t>
+  </si>
+  <si>
+    <t>263498</t>
+  </si>
+  <si>
+    <t>2615.5</t>
+  </si>
+  <si>
+    <t>728803</t>
+  </si>
+  <si>
+    <t>1329.99</t>
+  </si>
+  <si>
+    <t>16805</t>
+  </si>
+  <si>
+    <t>1913.9800000000002</t>
+  </si>
+  <si>
+    <t>31502</t>
+  </si>
+  <si>
+    <t>3002.4</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-31</t>
+  </si>
+  <si>
+    <t>MULTIPLST DISTRIBUIDORA DE EMBALAGENS LTDA</t>
+  </si>
+  <si>
+    <t>3452</t>
+  </si>
+  <si>
+    <t>21018.58</t>
+  </si>
+  <si>
+    <t>370993</t>
+  </si>
+  <si>
+    <t>1693.62</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-32</t>
+  </si>
+  <si>
+    <t>WMS SUPERMERCADOS DO BEASIL LTDA</t>
+  </si>
+  <si>
+    <t>26248</t>
+  </si>
+  <si>
+    <t>341.64</t>
+  </si>
+  <si>
+    <t>29002</t>
+  </si>
+  <si>
+    <t>2175.7</t>
+  </si>
+  <si>
+    <t>3793</t>
+  </si>
+  <si>
+    <t>2051.1499999999996</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-33</t>
+  </si>
+  <si>
+    <t>JUMBO COMERCIO DE UTILIDADES DE UTILIDADES LTDA</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>312.75</t>
+  </si>
+  <si>
+    <t>4453</t>
+  </si>
+  <si>
+    <t>6615.0</t>
+  </si>
+  <si>
+    <t>24142</t>
+  </si>
+  <si>
+    <t>537.0</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-34</t>
+  </si>
+  <si>
+    <t>DD VILLELA COMERCIO VAREGISTA</t>
+  </si>
+  <si>
+    <t>9794</t>
+  </si>
+  <si>
+    <t>2937.25</t>
+  </si>
+  <si>
+    <t>14690</t>
+  </si>
+  <si>
+    <t>1051.5</t>
+  </si>
+  <si>
+    <t>265684</t>
+  </si>
+  <si>
+    <t>2766.0</t>
+  </si>
+  <si>
+    <t>36202</t>
+  </si>
+  <si>
+    <t>7505.82</t>
+  </si>
   <si>
     <t>CNPJ:</t>
   </si>
@@ -50,6 +506,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,14 +532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -90,14 +542,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,7 +642,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,7 +676,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -249,6 +699,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -259,31 +710,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -305,7 +756,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -363,7 +814,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -376,12 +827,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -400,51 +852,1434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D3" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45567</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45567</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45567</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45581</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45581</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45583</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45614</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45614</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45614</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45643</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45643</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45643</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45271</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45293</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45665</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45674</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45664</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45334</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45685</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45693</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45687</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45687</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45659</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45706</v>
+      </c>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45343</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63">
+        <v>555</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>